--- a/FieldData/2015/xlsx_analysis/REF-05-001 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/REF-05-001 Field Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_0C38DD7DABB57CAE6EF50F81A730B33556EBB479" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1493FF-10F3-4776-A940-BAB3F956B140}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0C38DD7DABB57CAE6EF50F81A730B33556EBB479" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{839B3C8C-A83A-4AE9-941B-4026ED77E3F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="92">
   <si>
     <t>Raw Sample Plot Data (Quadrats)</t>
   </si>
@@ -302,9 +302,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>PERCENT_COVER</t>
   </si>
   <si>
@@ -312,6 +309,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2931,10 +2934,10 @@
   <dimension ref="A1:IO204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C159" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="G159" sqref="G159:G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2964,16 +2967,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F1" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="H1" s="88" t="s">
         <v>89</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,22 +2984,22 @@
         <v>37</v>
       </c>
       <c r="B2" s="89">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C2" s="90">
         <v>1</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F2" s="93">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="94"/>
     </row>
@@ -3005,259 +3008,264 @@
         <v>37</v>
       </c>
       <c r="B3" s="89">
-        <v>27</v>
-      </c>
-      <c r="C3" s="90">
+        <v>6</v>
+      </c>
+      <c r="C3" s="89">
         <v>1</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="93">
-        <v>30</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="94">
-        <v>156</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="94">
+        <v>32</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="89">
-        <v>27</v>
-      </c>
-      <c r="C4" s="90">
+        <v>14</v>
+      </c>
+      <c r="C4" s="89">
         <v>1</v>
       </c>
-      <c r="D4" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="93">
-        <v>12</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="94"/>
+      <c r="D4" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="94">
+        <v>8</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="89">
-        <v>27</v>
-      </c>
-      <c r="C5" s="90">
         <v>1</v>
       </c>
-      <c r="D5" s="97" t="s">
-        <v>44</v>
+      <c r="C5" s="89">
+        <v>2</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="93">
-        <v>5</v>
-      </c>
-      <c r="G5" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="94">
+        <v>1</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="89">
-        <v>27</v>
-      </c>
-      <c r="C6" s="90">
-        <v>1</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="93">
-        <v>17</v>
-      </c>
-      <c r="G6" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="94"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="89">
+        <v>2</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="94">
+        <v>15</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="89">
-        <v>27</v>
-      </c>
-      <c r="C7" s="90">
-        <v>1</v>
-      </c>
-      <c r="D7" s="97"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="89">
+        <v>2</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="93">
-        <f>100-SUM(F2:F6)</f>
-        <v>32</v>
-      </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="89">
-        <v>15</v>
-      </c>
-      <c r="C8" s="90">
-        <v>1</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="93">
-        <v>80</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="94"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="89">
+        <v>2</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="89">
-        <v>15</v>
-      </c>
-      <c r="C9" s="90">
-        <v>1</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="89">
+        <v>2</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="93">
-        <v>3</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F9" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="89">
-        <v>15</v>
-      </c>
-      <c r="C10" s="90">
+        <v>5</v>
+      </c>
+      <c r="C10" s="89">
+        <v>2</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="94">
         <v>1</v>
       </c>
-      <c r="D10" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="93">
-        <v>3</v>
-      </c>
-      <c r="G10" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="94"/>
+      <c r="G10" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="89">
-        <v>15</v>
-      </c>
-      <c r="C11" s="90">
-        <v>1</v>
-      </c>
-      <c r="D11" s="97"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="89">
+        <v>2</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>60</v>
+      </c>
       <c r="E11" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="93">
-        <v>14</v>
-      </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="89">
-        <v>9</v>
-      </c>
-      <c r="C12" s="90">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="89">
+        <v>2</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="93">
-        <v>80</v>
-      </c>
-      <c r="G12" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="89">
-        <v>9</v>
-      </c>
-      <c r="C13" s="90">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="89">
+        <v>2</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="93">
-        <v>30</v>
-      </c>
-      <c r="G13" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F13" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
@@ -3266,317 +3274,333 @@
       <c r="B14" s="89">
         <v>9</v>
       </c>
-      <c r="C14" s="90">
-        <v>1</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>51</v>
+      <c r="C14" s="89">
+        <v>2</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="93">
+        <v>61</v>
+      </c>
+      <c r="F14" s="94">
         <v>0.5</v>
       </c>
-      <c r="G14" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="94"/>
+      <c r="G14" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="89">
-        <v>4</v>
-      </c>
-      <c r="C15" s="90">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="89">
+        <v>2</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="93">
-        <v>55</v>
-      </c>
-      <c r="G15" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F15" s="94">
+        <v>11</v>
+      </c>
+      <c r="G15" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="89">
-        <v>4</v>
-      </c>
-      <c r="C16" s="90">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="89">
+        <v>2</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="93">
-        <v>5</v>
-      </c>
-      <c r="G16" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="94">
+        <v>7</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="89">
-        <v>4</v>
-      </c>
-      <c r="C17" s="90">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="89">
+        <v>2</v>
       </c>
       <c r="D17" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="94">
         <v>55</v>
       </c>
-      <c r="E17" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="93">
-        <v>1</v>
-      </c>
-      <c r="G17" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="94"/>
+      <c r="G17" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="99"/>
     </row>
     <row r="18" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="89">
-        <v>4</v>
-      </c>
-      <c r="C18" s="90">
+        <v>12</v>
+      </c>
+      <c r="C18" s="89">
+        <v>2</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="94">
         <v>1</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="93">
-        <v>40</v>
-      </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="94"/>
+      <c r="G18" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="99"/>
     </row>
     <row r="19" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="89">
-        <v>16</v>
-      </c>
-      <c r="C19" s="90">
-        <v>1</v>
-      </c>
-      <c r="D19" s="89"/>
+      <c r="B19" s="100">
+        <v>15</v>
+      </c>
+      <c r="C19" s="100">
+        <v>2</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>60</v>
+      </c>
       <c r="E19" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="93">
-        <v>30</v>
-      </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F19" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="100"/>
     </row>
     <row r="20" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="89">
-        <v>16</v>
-      </c>
-      <c r="C20" s="90">
-        <v>1</v>
+      <c r="B20" s="100">
+        <v>19</v>
+      </c>
+      <c r="C20" s="100">
+        <v>2</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E20" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="93">
-        <v>45</v>
-      </c>
-      <c r="G20" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F20" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="89">
-        <v>16</v>
-      </c>
-      <c r="C21" s="90">
-        <v>1</v>
+      <c r="B21" s="100">
+        <v>20</v>
+      </c>
+      <c r="C21" s="100">
+        <v>2</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="93">
-        <v>5</v>
-      </c>
-      <c r="G21" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F21" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="89">
-        <v>16</v>
-      </c>
-      <c r="C22" s="90">
+      <c r="B22" s="100">
+        <v>25</v>
+      </c>
+      <c r="C22" s="100">
         <v>1</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="94"/>
+        <v>69</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="101">
+        <v>5</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="104"/>
     </row>
     <row r="23" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="89">
-        <v>16</v>
-      </c>
-      <c r="C23" s="90">
+      <c r="B23" s="100">
+        <v>26</v>
+      </c>
+      <c r="C23" s="100">
         <v>1</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="93">
+        <v>69</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="101">
         <v>0.5</v>
       </c>
-      <c r="G23" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="94"/>
+      <c r="G23" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="104"/>
     </row>
     <row r="24" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="89">
-        <v>16</v>
-      </c>
-      <c r="C24" s="90">
+      <c r="B24" s="100">
+        <v>26</v>
+      </c>
+      <c r="C24" s="100">
         <v>1</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="91" t="s">
+        <v>60</v>
+      </c>
       <c r="E24" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="93">
-        <v>20</v>
-      </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F24" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="104"/>
     </row>
     <row r="25" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="89">
+      <c r="B25" s="100">
+        <v>7</v>
+      </c>
+      <c r="C25" s="100">
         <v>1</v>
       </c>
-      <c r="C25" s="90">
-        <v>1</v>
-      </c>
       <c r="D25" s="91" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E25" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="93">
-        <v>52</v>
-      </c>
-      <c r="G25" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F25" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="89">
+      <c r="B26" s="100">
+        <v>11</v>
+      </c>
+      <c r="C26" s="100">
         <v>1</v>
       </c>
-      <c r="C26" s="90">
-        <v>1</v>
-      </c>
       <c r="D26" s="91" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="93">
-        <v>4</v>
-      </c>
-      <c r="G26" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="94"/>
+        <v>61</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="89">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C27" s="90">
         <v>1</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="92" t="s">
-        <v>48</v>
+      <c r="D27" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>43</v>
       </c>
       <c r="F27" s="93">
-        <v>44</v>
-      </c>
-      <c r="G27" s="89"/>
+        <v>12</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>85</v>
+      </c>
       <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3584,22 +3608,22 @@
         <v>37</v>
       </c>
       <c r="B28" s="89">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C28" s="90">
         <v>1</v>
       </c>
-      <c r="D28" s="91" t="s">
-        <v>38</v>
+      <c r="D28" s="97" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F28" s="93">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H28" s="94"/>
     </row>
@@ -3608,22 +3632,22 @@
         <v>37</v>
       </c>
       <c r="B29" s="89">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C29" s="90">
         <v>1</v>
       </c>
-      <c r="D29" s="91" t="s">
-        <v>53</v>
+      <c r="D29" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="E29" s="92" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F29" s="93">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G29" s="89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -3632,22 +3656,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="90">
         <v>1</v>
       </c>
-      <c r="D30" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>59</v>
+      <c r="D30" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="96" t="s">
+        <v>43</v>
       </c>
       <c r="F30" s="93">
-        <v>0.5</v>
+        <v>80</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H30" s="94"/>
     </row>
@@ -3656,19 +3680,23 @@
         <v>37</v>
       </c>
       <c r="B31" s="89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="90">
         <v>1</v>
       </c>
-      <c r="D31" s="89"/>
+      <c r="D31" s="97" t="s">
+        <v>46</v>
+      </c>
       <c r="E31" s="92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="93">
-        <v>26</v>
-      </c>
-      <c r="G31" s="89"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="89" t="s">
+        <v>85</v>
+      </c>
       <c r="H31" s="94"/>
     </row>
     <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,22 +3704,22 @@
         <v>37</v>
       </c>
       <c r="B32" s="89">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
       </c>
-      <c r="D32" s="91" t="s">
-        <v>38</v>
+      <c r="D32" s="97" t="s">
+        <v>44</v>
       </c>
       <c r="E32" s="92" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F32" s="93">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H32" s="94"/>
     </row>
@@ -3700,22 +3728,22 @@
         <v>37</v>
       </c>
       <c r="B33" s="89">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F33" s="93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H33" s="94"/>
     </row>
@@ -3724,19 +3752,23 @@
         <v>37</v>
       </c>
       <c r="B34" s="89">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="92" t="s">
-        <v>48</v>
+      <c r="D34" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="96" t="s">
+        <v>43</v>
       </c>
       <c r="F34" s="93">
-        <v>33</v>
-      </c>
-      <c r="G34" s="89"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="89" t="s">
+        <v>85</v>
+      </c>
       <c r="H34" s="94"/>
     </row>
     <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3744,91 +3776,95 @@
         <v>37</v>
       </c>
       <c r="B35" s="89">
-        <v>19</v>
-      </c>
-      <c r="C35" s="90">
+        <v>3</v>
+      </c>
+      <c r="C35" s="89">
         <v>1</v>
       </c>
-      <c r="D35" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="93">
-        <v>45</v>
-      </c>
-      <c r="G35" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="94"/>
+      <c r="D35" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="99"/>
     </row>
     <row r="36" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="89">
-        <v>19</v>
-      </c>
-      <c r="C36" s="90">
+        <v>14</v>
+      </c>
+      <c r="C36" s="89">
         <v>1</v>
       </c>
-      <c r="D36" s="91" t="s">
-        <v>49</v>
+      <c r="D36" s="97" t="s">
+        <v>44</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="93">
-        <v>25</v>
-      </c>
-      <c r="G36" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="94"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="99"/>
     </row>
     <row r="37" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="89">
-        <v>19</v>
-      </c>
-      <c r="C37" s="90">
+        <v>4</v>
+      </c>
+      <c r="C37" s="89">
+        <v>2</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="94">
         <v>1</v>
       </c>
-      <c r="D37" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="93">
-        <v>2</v>
-      </c>
-      <c r="G37" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="94"/>
+      <c r="G37" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="99"/>
     </row>
     <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="89">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
       </c>
-      <c r="D38" s="89"/>
+      <c r="D38" s="91" t="s">
+        <v>38</v>
+      </c>
       <c r="E38" s="92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F38" s="93">
-        <v>28</v>
-      </c>
-      <c r="G38" s="89"/>
+        <v>4</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H38" s="94"/>
     </row>
     <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3836,43 +3872,45 @@
         <v>37</v>
       </c>
       <c r="B39" s="89">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F39" s="93">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G39" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="94"/>
+      <c r="H39" s="94">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="89">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E40" s="92" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" s="93">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G40" s="89" t="s">
         <v>10</v>
@@ -3884,19 +3922,23 @@
         <v>37</v>
       </c>
       <c r="B41" s="89">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
       </c>
-      <c r="D41" s="89"/>
+      <c r="D41" s="91" t="s">
+        <v>38</v>
+      </c>
       <c r="E41" s="92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F41" s="93">
-        <v>59</v>
-      </c>
-      <c r="G41" s="89"/>
+        <v>30</v>
+      </c>
+      <c r="G41" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H41" s="94"/>
     </row>
     <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3904,19 +3946,19 @@
         <v>37</v>
       </c>
       <c r="B42" s="89">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C42" s="90">
         <v>1</v>
       </c>
-      <c r="D42" s="91" t="s">
-        <v>38</v>
+      <c r="D42" s="98" t="s">
+        <v>51</v>
       </c>
       <c r="E42" s="92" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F42" s="93">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="89" t="s">
         <v>10</v>
@@ -3928,19 +3970,19 @@
         <v>37</v>
       </c>
       <c r="B43" s="89">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C43" s="90">
         <v>1</v>
       </c>
       <c r="D43" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="93">
         <v>55</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="93">
-        <v>4</v>
       </c>
       <c r="G43" s="89" t="s">
         <v>10</v>
@@ -3952,33 +3994,31 @@
         <v>37</v>
       </c>
       <c r="B44" s="89">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C44" s="90">
         <v>1</v>
       </c>
       <c r="D44" s="91" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E44" s="92" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F44" s="93">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G44" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="94">
-        <v>165</v>
-      </c>
+      <c r="H44" s="94"/>
     </row>
     <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C45" s="90">
         <v>1</v>
@@ -3990,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="F45" s="93">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G45" s="89" t="s">
         <v>10</v>
@@ -4002,22 +4042,22 @@
         <v>37</v>
       </c>
       <c r="B46" s="89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C46" s="90">
         <v>1</v>
       </c>
       <c r="D46" s="91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F46" s="93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="H46" s="94"/>
     </row>
@@ -4026,19 +4066,19 @@
         <v>37</v>
       </c>
       <c r="B47" s="89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C47" s="90">
         <v>1</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F47" s="93">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="89" t="s">
         <v>10</v>
@@ -4050,22 +4090,22 @@
         <v>37</v>
       </c>
       <c r="B48" s="89">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48" s="90">
         <v>1</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E48" s="92" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F48" s="93">
         <v>0.5</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="94"/>
     </row>
@@ -4074,19 +4114,19 @@
         <v>37</v>
       </c>
       <c r="B49" s="89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C49" s="90">
         <v>1</v>
       </c>
       <c r="D49" s="91" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E49" s="92" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F49" s="93">
-        <v>0.5</v>
+        <v>52</v>
       </c>
       <c r="G49" s="89" t="s">
         <v>10</v>
@@ -4098,19 +4138,23 @@
         <v>37</v>
       </c>
       <c r="B50" s="89">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C50" s="90">
         <v>1</v>
       </c>
-      <c r="D50" s="89"/>
+      <c r="D50" s="91" t="s">
+        <v>38</v>
+      </c>
       <c r="E50" s="92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F50" s="93">
-        <v>42</v>
-      </c>
-      <c r="G50" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="G50" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H50" s="94"/>
     </row>
     <row r="51" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4118,19 +4162,19 @@
         <v>37</v>
       </c>
       <c r="B51" s="89">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C51" s="90">
         <v>1</v>
       </c>
       <c r="D51" s="91" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E51" s="92" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F51" s="93">
-        <v>27</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="89" t="s">
         <v>10</v>
@@ -4142,19 +4186,19 @@
         <v>37</v>
       </c>
       <c r="B52" s="89">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C52" s="90">
         <v>1</v>
       </c>
       <c r="D52" s="91" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E52" s="92" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F52" s="93">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G52" s="89" t="s">
         <v>10</v>
@@ -4166,22 +4210,22 @@
         <v>37</v>
       </c>
       <c r="B53" s="89">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C53" s="90">
         <v>1</v>
       </c>
       <c r="D53" s="91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E53" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="89" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="H53" s="94"/>
     </row>
@@ -4190,19 +4234,19 @@
         <v>37</v>
       </c>
       <c r="B54" s="89">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C54" s="90">
         <v>1</v>
       </c>
       <c r="D54" s="91" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E54" s="92" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F54" s="93">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G54" s="89" t="s">
         <v>10</v>
@@ -4214,20 +4258,23 @@
         <v>37</v>
       </c>
       <c r="B55" s="89">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C55" s="90">
         <v>1</v>
       </c>
-      <c r="D55" s="89"/>
+      <c r="D55" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="E55" s="92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F55" s="93">
-        <f>100-SUM(F51:F54)</f>
-        <v>50</v>
-      </c>
-      <c r="G55" s="89"/>
+        <v>25</v>
+      </c>
+      <c r="G55" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H55" s="94"/>
     </row>
     <row r="56" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4235,7 +4282,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="89">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C56" s="90">
         <v>1</v>
@@ -4247,7 +4294,7 @@
         <v>39</v>
       </c>
       <c r="F56" s="93">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G56" s="89" t="s">
         <v>10</v>
@@ -4259,19 +4306,19 @@
         <v>37</v>
       </c>
       <c r="B57" s="89">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C57" s="90">
         <v>1</v>
       </c>
       <c r="D57" s="91" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E57" s="92" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F57" s="93">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G57" s="89" t="s">
         <v>10</v>
@@ -4283,19 +4330,19 @@
         <v>37</v>
       </c>
       <c r="B58" s="89">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C58" s="90">
         <v>1</v>
       </c>
       <c r="D58" s="91" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E58" s="92" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F58" s="93">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G58" s="89" t="s">
         <v>10</v>
@@ -4307,19 +4354,23 @@
         <v>37</v>
       </c>
       <c r="B59" s="89">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C59" s="90">
         <v>1</v>
       </c>
-      <c r="D59" s="89"/>
+      <c r="D59" s="91" t="s">
+        <v>55</v>
+      </c>
       <c r="E59" s="92" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F59" s="93">
-        <v>37</v>
-      </c>
-      <c r="G59" s="89"/>
+        <v>4</v>
+      </c>
+      <c r="G59" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H59" s="94"/>
     </row>
     <row r="60" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4327,46 +4378,48 @@
         <v>37</v>
       </c>
       <c r="B60" s="89">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="90">
         <v>1</v>
       </c>
       <c r="D60" s="91" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E60" s="92" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F60" s="93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="94"/>
+      <c r="H60" s="94">
+        <v>165</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B61" s="89">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C61" s="90">
         <v>1</v>
       </c>
       <c r="D61" s="91" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E61" s="92" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F61" s="93">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G61" s="89" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H61" s="94"/>
     </row>
@@ -4375,22 +4428,22 @@
         <v>37</v>
       </c>
       <c r="B62" s="89">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C62" s="90">
         <v>1</v>
       </c>
-      <c r="D62" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="96" t="s">
-        <v>43</v>
+      <c r="D62" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="F62" s="93">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G62" s="89" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H62" s="94"/>
     </row>
@@ -4399,19 +4452,23 @@
         <v>37</v>
       </c>
       <c r="B63" s="89">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C63" s="90">
         <v>1</v>
       </c>
-      <c r="D63" s="91"/>
+      <c r="D63" s="91" t="s">
+        <v>62</v>
+      </c>
       <c r="E63" s="92" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F63" s="93">
-        <v>43</v>
-      </c>
-      <c r="G63" s="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="89" t="s">
+        <v>10</v>
+      </c>
       <c r="H63" s="94"/>
     </row>
     <row r="64" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4419,19 +4476,19 @@
         <v>37</v>
       </c>
       <c r="B64" s="89">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C64" s="90">
         <v>1</v>
       </c>
-      <c r="D64" s="98" t="s">
-        <v>65</v>
+      <c r="D64" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="E64" s="92" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F64" s="93">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G64" s="89" t="s">
         <v>10</v>
@@ -4443,9 +4500,9 @@
         <v>37</v>
       </c>
       <c r="B65" s="89">
-        <v>3</v>
-      </c>
-      <c r="C65" s="89">
+        <v>31</v>
+      </c>
+      <c r="C65" s="90">
         <v>1</v>
       </c>
       <c r="D65" s="91" t="s">
@@ -4454,176 +4511,180 @@
       <c r="E65" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="94">
-        <v>95</v>
-      </c>
-      <c r="G65" s="99" t="s">
+      <c r="F65" s="93">
+        <v>17</v>
+      </c>
+      <c r="G65" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="99"/>
+      <c r="H65" s="94"/>
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="89">
+        <v>31</v>
+      </c>
+      <c r="C66" s="90">
+        <v>1</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="93">
         <v>3</v>
       </c>
-      <c r="C66" s="89">
-        <v>1</v>
-      </c>
-      <c r="D66" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="94">
-        <v>2</v>
-      </c>
-      <c r="G66" s="99" t="s">
+      <c r="G66" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="99"/>
+      <c r="H66" s="94"/>
     </row>
     <row r="67" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B67" s="89">
-        <v>3</v>
-      </c>
-      <c r="C67" s="89">
+        <v>8</v>
+      </c>
+      <c r="C67" s="90">
         <v>1</v>
       </c>
-      <c r="D67" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="94">
-        <v>2</v>
-      </c>
-      <c r="G67" s="99" t="s">
+      <c r="D67" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="93">
+        <v>60</v>
+      </c>
+      <c r="G67" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="99"/>
+      <c r="H67" s="94"/>
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B68" s="89">
-        <v>3</v>
-      </c>
-      <c r="C68" s="89">
+        <v>8</v>
+      </c>
+      <c r="C68" s="90">
         <v>1</v>
       </c>
-      <c r="D68" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="99"/>
+      <c r="D68" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="93">
+        <v>2</v>
+      </c>
+      <c r="G68" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="94"/>
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B69" s="89">
-        <v>13</v>
-      </c>
-      <c r="C69" s="89">
+        <v>8</v>
+      </c>
+      <c r="C69" s="90">
         <v>1</v>
       </c>
       <c r="D69" s="91" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E69" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="94">
-        <v>40</v>
-      </c>
-      <c r="G69" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="93">
+        <v>1</v>
+      </c>
+      <c r="G69" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H69" s="99"/>
+      <c r="H69" s="94"/>
     </row>
     <row r="70" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B70" s="89">
-        <v>13</v>
-      </c>
-      <c r="C70" s="89">
+        <v>29</v>
+      </c>
+      <c r="C70" s="90">
         <v>1</v>
       </c>
       <c r="D70" s="91" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E70" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="94">
-        <v>20</v>
-      </c>
-      <c r="G70" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="93">
+        <v>9</v>
+      </c>
+      <c r="G70" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="99"/>
+      <c r="H70" s="94"/>
     </row>
     <row r="71" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="89">
-        <v>13</v>
-      </c>
-      <c r="C71" s="89">
+        <v>29</v>
+      </c>
+      <c r="C71" s="90">
         <v>1</v>
       </c>
-      <c r="D71" s="91" t="s">
-        <v>58</v>
+      <c r="D71" s="98" t="s">
+        <v>65</v>
       </c>
       <c r="E71" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" s="94">
-        <v>1</v>
-      </c>
-      <c r="G71" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="93">
+        <v>3</v>
+      </c>
+      <c r="G71" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="99"/>
+      <c r="H71" s="94"/>
     </row>
     <row r="72" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="89">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C72" s="89">
         <v>1</v>
       </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89" t="s">
-        <v>48</v>
+      <c r="D72" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F72" s="94">
-        <v>40</v>
-      </c>
-      <c r="G72" s="99"/>
+        <v>95</v>
+      </c>
+      <c r="G72" s="99" t="s">
+        <v>10</v>
+      </c>
       <c r="H72" s="99"/>
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4631,7 +4692,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73" s="89">
         <v>1</v>
@@ -4643,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="F73" s="94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="99" t="s">
         <v>10</v>
@@ -4655,19 +4716,19 @@
         <v>37</v>
       </c>
       <c r="B74" s="89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" s="89">
         <v>1</v>
       </c>
-      <c r="D74" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="92" t="s">
-        <v>50</v>
+      <c r="D74" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="89" t="s">
+        <v>68</v>
       </c>
       <c r="F74" s="94">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G74" s="99" t="s">
         <v>10</v>
@@ -4679,22 +4740,22 @@
         <v>37</v>
       </c>
       <c r="B75" s="89">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C75" s="89">
         <v>1</v>
       </c>
       <c r="D75" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="89" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>39</v>
       </c>
       <c r="F75" s="94">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G75" s="99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H75" s="99"/>
     </row>
@@ -4703,19 +4764,19 @@
         <v>37</v>
       </c>
       <c r="B76" s="89">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C76" s="89">
         <v>1</v>
       </c>
       <c r="D76" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="89" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="E76" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F76" s="94">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G76" s="99" t="s">
         <v>10</v>
@@ -4727,19 +4788,19 @@
         <v>37</v>
       </c>
       <c r="B77" s="89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="89">
         <v>1</v>
       </c>
       <c r="D77" s="91" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E77" s="92" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F77" s="94">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G77" s="99" t="s">
         <v>10</v>
@@ -4751,19 +4812,19 @@
         <v>37</v>
       </c>
       <c r="B78" s="89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C78" s="89">
         <v>1</v>
       </c>
       <c r="D78" s="91" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E78" s="92" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F78" s="94">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G78" s="99" t="s">
         <v>10</v>
@@ -4775,22 +4836,22 @@
         <v>37</v>
       </c>
       <c r="B79" s="89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C79" s="89">
         <v>1</v>
       </c>
       <c r="D79" s="91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E79" s="92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="94">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G79" s="99" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="H79" s="99"/>
     </row>
@@ -4799,22 +4860,22 @@
         <v>37</v>
       </c>
       <c r="B80" s="89">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C80" s="89">
         <v>1</v>
       </c>
       <c r="D80" s="91" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E80" s="89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F80" s="94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G80" s="99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="99"/>
     </row>
@@ -4828,17 +4889,17 @@
       <c r="C81" s="89">
         <v>1</v>
       </c>
-      <c r="D81" s="97" t="s">
-        <v>44</v>
+      <c r="D81" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="E81" s="92" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F81" s="94">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="G81" s="99" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H81" s="99"/>
     </row>
@@ -4852,14 +4913,18 @@
       <c r="C82" s="89">
         <v>1</v>
       </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89" t="s">
-        <v>48</v>
+      <c r="D82" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F82" s="94">
-        <v>36</v>
-      </c>
-      <c r="G82" s="99"/>
+        <v>27</v>
+      </c>
+      <c r="G82" s="99" t="s">
+        <v>10</v>
+      </c>
       <c r="H82" s="99"/>
     </row>
     <row r="83" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4965,19 +5030,23 @@
         <v>37</v>
       </c>
       <c r="B87" s="89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87" s="89">
+        <v>2</v>
+      </c>
+      <c r="D87" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="94">
-        <v>18</v>
-      </c>
-      <c r="G87" s="99"/>
+      <c r="G87" s="99" t="s">
+        <v>10</v>
+      </c>
       <c r="H87" s="99"/>
     </row>
     <row r="88" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4985,22 +5054,22 @@
         <v>37</v>
       </c>
       <c r="B88" s="89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" s="89">
         <v>2</v>
       </c>
       <c r="D88" s="91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E88" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F88" s="94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" s="99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="99"/>
     </row>
@@ -5009,7 +5078,7 @@
         <v>37</v>
       </c>
       <c r="B89" s="89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="89">
         <v>2</v>
@@ -5021,7 +5090,7 @@
         <v>59</v>
       </c>
       <c r="F89" s="94">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G89" s="99" t="s">
         <v>10</v>
@@ -5033,22 +5102,22 @@
         <v>37</v>
       </c>
       <c r="B90" s="89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="89">
         <v>2</v>
       </c>
       <c r="D90" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="89" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="E90" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="F90" s="94">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G90" s="99" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="H90" s="99"/>
     </row>
@@ -5057,19 +5126,23 @@
         <v>37</v>
       </c>
       <c r="B91" s="89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C91" s="89">
         <v>2</v>
       </c>
-      <c r="D91" s="89"/>
+      <c r="D91" s="91" t="s">
+        <v>77</v>
+      </c>
       <c r="E91" s="89" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F91" s="94">
-        <v>98</v>
-      </c>
-      <c r="G91" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="G91" s="99" t="s">
+        <v>10</v>
+      </c>
       <c r="H91" s="99"/>
     </row>
     <row r="92" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5077,22 +5150,22 @@
         <v>37</v>
       </c>
       <c r="B92" s="89">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C92" s="89">
         <v>2</v>
       </c>
       <c r="D92" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="89" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="E92" s="92" t="s">
+        <v>59</v>
       </c>
       <c r="F92" s="94">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G92" s="99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H92" s="99"/>
     </row>
@@ -5101,22 +5174,22 @@
         <v>37</v>
       </c>
       <c r="B93" s="89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C93" s="89">
         <v>2</v>
       </c>
       <c r="D93" s="91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E93" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F93" s="94">
         <v>0.5</v>
       </c>
       <c r="G93" s="99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" s="99"/>
     </row>
@@ -5125,19 +5198,19 @@
         <v>37</v>
       </c>
       <c r="B94" s="89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C94" s="89">
         <v>2</v>
       </c>
       <c r="D94" s="91" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E94" s="92" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F94" s="94">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G94" s="99" t="s">
         <v>10</v>
@@ -5149,22 +5222,22 @@
         <v>37</v>
       </c>
       <c r="B95" s="89">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C95" s="89">
         <v>2</v>
       </c>
       <c r="D95" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="89" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="E95" s="92" t="s">
+        <v>59</v>
       </c>
       <c r="F95" s="94">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="G95" s="99" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="H95" s="99"/>
     </row>
@@ -5173,674 +5246,706 @@
         <v>37</v>
       </c>
       <c r="B96" s="89">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C96" s="89">
         <v>2</v>
       </c>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" s="94">
-        <v>80</v>
-      </c>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
+      <c r="D96" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="100"/>
     </row>
     <row r="97" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B97" s="89">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C97" s="89">
         <v>2</v>
       </c>
-      <c r="D97" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E97" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F97" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G97" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H97" s="99"/>
+      <c r="D97" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="F97" s="101">
+        <v>1</v>
+      </c>
+      <c r="G97" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="100"/>
     </row>
     <row r="98" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="89">
-        <v>3</v>
-      </c>
-      <c r="C98" s="89">
+      <c r="B98" s="100">
+        <v>13</v>
+      </c>
+      <c r="C98" s="100">
         <v>2</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E98" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G98" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="99"/>
+        <v>59</v>
+      </c>
+      <c r="F98" s="101">
+        <v>2</v>
+      </c>
+      <c r="G98" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="100"/>
     </row>
     <row r="99" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="89">
-        <v>3</v>
-      </c>
-      <c r="C99" s="89">
+      <c r="B99" s="100">
+        <v>13</v>
+      </c>
+      <c r="C99" s="100">
         <v>2</v>
       </c>
-      <c r="D99" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="94">
-        <v>12</v>
-      </c>
-      <c r="G99" s="99" t="s">
+      <c r="D99" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="101">
+        <v>1</v>
+      </c>
+      <c r="G99" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H99" s="99"/>
+      <c r="H99" s="100"/>
     </row>
     <row r="100" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B100" s="89">
-        <v>3</v>
-      </c>
-      <c r="C100" s="89">
+      <c r="B100" s="100">
+        <v>13</v>
+      </c>
+      <c r="C100" s="100">
         <v>2</v>
       </c>
-      <c r="D100" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F100" s="94">
-        <v>4</v>
-      </c>
-      <c r="G100" s="99" t="s">
+      <c r="D100" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E100" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G100" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="99"/>
+      <c r="H100" s="100"/>
     </row>
     <row r="101" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="89">
+      <c r="B101" s="100">
+        <v>15</v>
+      </c>
+      <c r="C101" s="100">
+        <v>2</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="101">
         <v>3</v>
       </c>
-      <c r="C101" s="89">
-        <v>2</v>
-      </c>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" s="94">
-        <v>83</v>
-      </c>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
+      <c r="G101" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="100"/>
     </row>
     <row r="102" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="89">
-        <v>4</v>
-      </c>
-      <c r="C102" s="89">
+      <c r="B102" s="100">
+        <v>16</v>
+      </c>
+      <c r="C102" s="100">
         <v>2</v>
       </c>
-      <c r="D102" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F102" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G102" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H102" s="99"/>
+      <c r="D102" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" s="101">
+        <v>3</v>
+      </c>
+      <c r="G102" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="100"/>
     </row>
     <row r="103" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B103" s="89">
-        <v>4</v>
-      </c>
-      <c r="C103" s="89">
+      <c r="B103" s="100">
+        <v>19</v>
+      </c>
+      <c r="C103" s="100">
         <v>2</v>
       </c>
-      <c r="D103" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G103" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="99"/>
+      <c r="D103" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="101">
+        <v>5</v>
+      </c>
+      <c r="G103" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="104"/>
     </row>
     <row r="104" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="89">
-        <v>4</v>
-      </c>
-      <c r="C104" s="89">
+      <c r="B104" s="100">
+        <v>20</v>
+      </c>
+      <c r="C104" s="100">
         <v>2</v>
       </c>
-      <c r="D104" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="E104" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="94">
-        <v>1</v>
-      </c>
-      <c r="G104" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="H104" s="99"/>
+      <c r="D104" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="101">
+        <v>2</v>
+      </c>
+      <c r="G104" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="104"/>
     </row>
     <row r="105" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="89">
-        <v>4</v>
-      </c>
-      <c r="C105" s="89">
+      <c r="B105" s="100">
+        <v>20</v>
+      </c>
+      <c r="C105" s="100">
         <v>2</v>
       </c>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="94">
-        <v>98</v>
-      </c>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
+      <c r="D105" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" s="101">
+        <v>1</v>
+      </c>
+      <c r="G105" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="104"/>
     </row>
     <row r="106" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="89">
-        <v>5</v>
-      </c>
-      <c r="C106" s="89">
-        <v>2</v>
+      <c r="B106" s="100">
+        <v>25</v>
+      </c>
+      <c r="C106" s="100">
+        <v>1</v>
       </c>
       <c r="D106" s="91" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E106" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="94">
-        <v>1</v>
-      </c>
-      <c r="G106" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="99"/>
+        <v>50</v>
+      </c>
+      <c r="F106" s="101">
+        <v>40</v>
+      </c>
+      <c r="G106" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="104"/>
     </row>
     <row r="107" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="89">
-        <v>5</v>
-      </c>
-      <c r="C107" s="89">
-        <v>2</v>
-      </c>
-      <c r="D107" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F107" s="94">
+      <c r="B107" s="100">
+        <v>25</v>
+      </c>
+      <c r="C107" s="100">
         <v>1</v>
       </c>
-      <c r="G107" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H107" s="99"/>
+      <c r="D107" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="101">
+        <v>50</v>
+      </c>
+      <c r="G107" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="104"/>
     </row>
     <row r="108" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="89">
-        <v>5</v>
-      </c>
-      <c r="C108" s="89">
+      <c r="B108" s="100">
+        <v>25</v>
+      </c>
+      <c r="C108" s="100">
+        <v>1</v>
+      </c>
+      <c r="D108" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="101">
         <v>2</v>
       </c>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F108" s="94">
-        <v>98</v>
-      </c>
-      <c r="G108" s="99"/>
-      <c r="H108" s="99"/>
+      <c r="G108" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="104"/>
     </row>
     <row r="109" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="89">
-        <v>6</v>
-      </c>
-      <c r="C109" s="89">
-        <v>2</v>
+      <c r="B109" s="100">
+        <v>30</v>
+      </c>
+      <c r="C109" s="100">
+        <v>1</v>
       </c>
       <c r="D109" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="E109" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="F109" s="94">
-        <v>3</v>
-      </c>
-      <c r="G109" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="101">
+        <v>80</v>
+      </c>
+      <c r="G109" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H109" s="99"/>
+      <c r="H109" s="104"/>
     </row>
     <row r="110" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="89">
-        <v>6</v>
-      </c>
-      <c r="C110" s="89">
-        <v>2</v>
+      <c r="B110" s="100">
+        <v>21</v>
+      </c>
+      <c r="C110" s="100">
+        <v>1</v>
       </c>
       <c r="D110" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E110" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F110" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G110" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H110" s="99"/>
+        <v>38</v>
+      </c>
+      <c r="E110" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="101">
+        <v>30</v>
+      </c>
+      <c r="G110" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="104"/>
     </row>
     <row r="111" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="89">
-        <v>6</v>
-      </c>
-      <c r="C111" s="89">
-        <v>2</v>
+      <c r="B111" s="100">
+        <v>21</v>
+      </c>
+      <c r="C111" s="100">
+        <v>1</v>
       </c>
       <c r="D111" s="91" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E111" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F111" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G111" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="99"/>
+        <v>50</v>
+      </c>
+      <c r="F111" s="101">
+        <v>20</v>
+      </c>
+      <c r="G111" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="104"/>
     </row>
     <row r="112" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="89">
-        <v>6</v>
-      </c>
-      <c r="C112" s="89">
-        <v>2</v>
-      </c>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" s="94">
-        <v>96</v>
-      </c>
-      <c r="G112" s="99"/>
-      <c r="H112" s="99"/>
+      <c r="B112" s="100">
+        <v>21</v>
+      </c>
+      <c r="C112" s="100">
+        <v>1</v>
+      </c>
+      <c r="D112" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="101">
+        <v>10</v>
+      </c>
+      <c r="G112" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="104"/>
     </row>
     <row r="113" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="89">
-        <v>7</v>
-      </c>
-      <c r="C113" s="89">
-        <v>2</v>
-      </c>
-      <c r="D113" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F113" s="94">
-        <v>5</v>
-      </c>
-      <c r="G113" s="99" t="s">
+      <c r="B113" s="100">
+        <v>21</v>
+      </c>
+      <c r="C113" s="100">
+        <v>1</v>
+      </c>
+      <c r="D113" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="101">
+        <v>3</v>
+      </c>
+      <c r="G113" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H113" s="99"/>
+      <c r="H113" s="104"/>
     </row>
     <row r="114" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B114" s="89">
-        <v>7</v>
-      </c>
-      <c r="C114" s="89">
-        <v>2</v>
+      <c r="B114" s="100">
+        <v>26</v>
+      </c>
+      <c r="C114" s="100">
+        <v>1</v>
       </c>
       <c r="D114" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E114" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F114" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G114" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H114" s="99"/>
+        <v>49</v>
+      </c>
+      <c r="E114" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="101">
+        <v>65</v>
+      </c>
+      <c r="G114" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="104"/>
     </row>
     <row r="115" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="89">
-        <v>7</v>
-      </c>
-      <c r="C115" s="89">
-        <v>2</v>
+      <c r="B115" s="100">
+        <v>26</v>
+      </c>
+      <c r="C115" s="100">
+        <v>1</v>
       </c>
       <c r="D115" s="91" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E115" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F115" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G115" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="99"/>
+        <v>56</v>
+      </c>
+      <c r="F115" s="101">
+        <v>6</v>
+      </c>
+      <c r="G115" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="104"/>
     </row>
     <row r="116" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B116" s="89">
-        <v>7</v>
-      </c>
-      <c r="C116" s="89">
+      <c r="B116" s="100">
+        <v>26</v>
+      </c>
+      <c r="C116" s="100">
+        <v>1</v>
+      </c>
+      <c r="D116" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F116" s="101">
         <v>2</v>
       </c>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F116" s="94">
-        <v>94</v>
-      </c>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
+      <c r="G116" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="104"/>
     </row>
     <row r="117" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="89">
-        <v>8</v>
-      </c>
-      <c r="C117" s="89">
-        <v>2</v>
+      <c r="B117" s="100">
+        <v>7</v>
+      </c>
+      <c r="C117" s="100">
+        <v>1</v>
       </c>
       <c r="D117" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="101">
         <v>60</v>
       </c>
-      <c r="E117" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G117" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="99"/>
+      <c r="G117" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="104"/>
     </row>
     <row r="118" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="89">
-        <v>8</v>
-      </c>
-      <c r="C118" s="89">
-        <v>2</v>
-      </c>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="94">
-        <v>99.5</v>
-      </c>
-      <c r="G118" s="99"/>
-      <c r="H118" s="99"/>
+      <c r="B118" s="100">
+        <v>7</v>
+      </c>
+      <c r="C118" s="100">
+        <v>1</v>
+      </c>
+      <c r="D118" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="101">
+        <v>9</v>
+      </c>
+      <c r="G118" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="104"/>
     </row>
     <row r="119" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B119" s="89">
-        <v>9</v>
-      </c>
-      <c r="C119" s="89">
-        <v>2</v>
+      <c r="B119" s="100">
+        <v>7</v>
+      </c>
+      <c r="C119" s="100">
+        <v>1</v>
       </c>
       <c r="D119" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E119" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F119" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G119" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="H119" s="99"/>
+        <v>49</v>
+      </c>
+      <c r="E119" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" s="101">
+        <v>5</v>
+      </c>
+      <c r="G119" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="104"/>
     </row>
     <row r="120" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="89">
-        <v>9</v>
-      </c>
-      <c r="C120" s="89">
-        <v>2</v>
-      </c>
-      <c r="D120" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E120" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G120" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="99"/>
+      <c r="B120" s="100">
+        <v>7</v>
+      </c>
+      <c r="C120" s="100">
+        <v>1</v>
+      </c>
+      <c r="D120" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E120" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" s="101">
+        <v>1</v>
+      </c>
+      <c r="G120" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="104"/>
     </row>
     <row r="121" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="89">
-        <v>9</v>
-      </c>
-      <c r="C121" s="89">
-        <v>2</v>
-      </c>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="94">
-        <v>99</v>
-      </c>
-      <c r="G121" s="99"/>
-      <c r="H121" s="99"/>
+      <c r="B121" s="100">
+        <v>22</v>
+      </c>
+      <c r="C121" s="100">
+        <v>1</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="101">
+        <v>65</v>
+      </c>
+      <c r="G121" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="104"/>
     </row>
     <row r="122" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="89">
+      <c r="B122" s="100">
+        <v>22</v>
+      </c>
+      <c r="C122" s="100">
+        <v>1</v>
+      </c>
+      <c r="D122" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="101">
+        <v>40</v>
+      </c>
+      <c r="G122" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="89">
-        <v>2</v>
-      </c>
-      <c r="D122" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F122" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G122" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="H122" s="99"/>
+      <c r="H122" s="104"/>
     </row>
     <row r="123" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B123" s="89">
+      <c r="B123" s="100">
+        <v>22</v>
+      </c>
+      <c r="C123" s="100">
+        <v>1</v>
+      </c>
+      <c r="D123" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F123" s="101">
+        <v>1</v>
+      </c>
+      <c r="G123" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="89">
-        <v>2</v>
-      </c>
-      <c r="D123" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F123" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G123" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="H123" s="99"/>
+      <c r="H123" s="104"/>
     </row>
     <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="89">
+      <c r="B124" s="100">
+        <v>22</v>
+      </c>
+      <c r="C124" s="100">
+        <v>1</v>
+      </c>
+      <c r="D124" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="101">
+        <v>1</v>
+      </c>
+      <c r="G124" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="89">
-        <v>2</v>
-      </c>
-      <c r="D124" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E124" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="94">
-        <v>11</v>
-      </c>
-      <c r="G124" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="99"/>
+      <c r="H124" s="104"/>
     </row>
     <row r="125" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="89">
-        <v>10</v>
-      </c>
-      <c r="C125" s="89">
-        <v>2</v>
+      <c r="B125" s="100">
+        <v>11</v>
+      </c>
+      <c r="C125" s="100">
+        <v>1</v>
       </c>
       <c r="D125" s="91" t="s">
         <v>38</v>
@@ -5848,43 +5953,47 @@
       <c r="E125" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="F125" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="G125" s="99" t="s">
+      <c r="F125" s="101">
+        <v>20</v>
+      </c>
+      <c r="G125" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H125" s="99"/>
+      <c r="H125" s="104"/>
     </row>
     <row r="126" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B126" s="89">
+      <c r="B126" s="100">
+        <v>11</v>
+      </c>
+      <c r="C126" s="100">
+        <v>1</v>
+      </c>
+      <c r="D126" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="101">
+        <v>15</v>
+      </c>
+      <c r="G126" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="89">
-        <v>2</v>
-      </c>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F126" s="94">
-        <v>88</v>
-      </c>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
+      <c r="H126" s="104"/>
     </row>
     <row r="127" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B127" s="89">
+      <c r="B127" s="100">
         <v>11</v>
       </c>
-      <c r="C127" s="89">
-        <v>2</v>
+      <c r="C127" s="100">
+        <v>1</v>
       </c>
       <c r="D127" s="91" t="s">
         <v>58</v>
@@ -5892,357 +6001,373 @@
       <c r="E127" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F127" s="94">
-        <v>15</v>
-      </c>
-      <c r="G127" s="99" t="s">
+      <c r="F127" s="101">
+        <v>12</v>
+      </c>
+      <c r="G127" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H127" s="99"/>
+      <c r="H127" s="104"/>
     </row>
     <row r="128" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="89">
-        <v>11</v>
-      </c>
-      <c r="C128" s="89">
-        <v>2</v>
+      <c r="B128" s="100">
+        <v>20</v>
+      </c>
+      <c r="C128" s="100">
+        <v>1</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E128" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" s="94">
-        <v>1</v>
-      </c>
-      <c r="G128" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="H128" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="F128" s="101">
+        <v>67</v>
+      </c>
+      <c r="G128" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="104"/>
     </row>
     <row r="129" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B129" s="89">
-        <v>11</v>
-      </c>
-      <c r="C129" s="89">
-        <v>2</v>
+      <c r="B129" s="100">
+        <v>20</v>
+      </c>
+      <c r="C129" s="100">
+        <v>1</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E129" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" s="94">
-        <v>7</v>
-      </c>
-      <c r="G129" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="99"/>
+        <v>50</v>
+      </c>
+      <c r="F129" s="101">
+        <v>3</v>
+      </c>
+      <c r="G129" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="104"/>
     </row>
     <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B130" s="89">
-        <v>11</v>
-      </c>
-      <c r="C130" s="89">
-        <v>2</v>
-      </c>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F130" s="94">
-        <v>77</v>
-      </c>
-      <c r="G130" s="99"/>
-      <c r="H130" s="99"/>
+      <c r="B130" s="100">
+        <v>20</v>
+      </c>
+      <c r="C130" s="100">
+        <v>1</v>
+      </c>
+      <c r="D130" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G130" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="104"/>
     </row>
     <row r="131" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B131" s="89">
+      <c r="B131" s="100">
+        <v>24</v>
+      </c>
+      <c r="C131" s="100">
+        <v>1</v>
+      </c>
+      <c r="D131" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="101">
         <v>12</v>
       </c>
-      <c r="C131" s="89">
-        <v>2</v>
-      </c>
-      <c r="D131" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E131" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F131" s="94">
-        <v>55</v>
-      </c>
-      <c r="G131" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="99"/>
+      <c r="G131" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="104"/>
     </row>
     <row r="132" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="89">
-        <v>12</v>
-      </c>
-      <c r="C132" s="89">
-        <v>2</v>
+      <c r="B132" s="100">
+        <v>24</v>
+      </c>
+      <c r="C132" s="100">
+        <v>1</v>
       </c>
       <c r="D132" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E132" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="F132" s="94">
-        <v>1</v>
-      </c>
-      <c r="G132" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="99"/>
+        <v>58</v>
+      </c>
+      <c r="E132" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="101">
+        <v>30</v>
+      </c>
+      <c r="G132" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="104"/>
     </row>
     <row r="133" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B133" s="89">
-        <v>12</v>
-      </c>
-      <c r="C133" s="89">
-        <v>2</v>
+      <c r="B133" s="100">
+        <v>24</v>
+      </c>
+      <c r="C133" s="100">
+        <v>1</v>
       </c>
       <c r="D133" s="91" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E133" s="92" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F133" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G133" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H133" s="100"/>
+      <c r="H133" s="104"/>
     </row>
     <row r="134" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="89">
-        <v>12</v>
-      </c>
-      <c r="C134" s="89">
-        <v>2</v>
-      </c>
-      <c r="D134" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="E134" s="100" t="s">
-        <v>80</v>
+      <c r="B134" s="100">
+        <v>23</v>
+      </c>
+      <c r="C134" s="100">
+        <v>1</v>
+      </c>
+      <c r="D134" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="92" t="s">
+        <v>39</v>
       </c>
       <c r="F134" s="101">
-        <v>1</v>
-      </c>
-      <c r="G134" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H134" s="100"/>
+      <c r="H134" s="104"/>
     </row>
     <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B135" s="89">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C135" s="89">
         <v>2</v>
       </c>
-      <c r="D135" s="100"/>
-      <c r="E135" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F135" s="101">
-        <v>43</v>
-      </c>
-      <c r="G135" s="100"/>
-      <c r="H135" s="100"/>
+      <c r="D135" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G135" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="99"/>
     </row>
     <row r="136" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="100">
-        <v>13</v>
-      </c>
-      <c r="C136" s="100">
+      <c r="B136" s="89">
         <v>2</v>
       </c>
+      <c r="C136" s="89">
+        <v>2</v>
+      </c>
       <c r="D136" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E136" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F136" s="101">
-        <v>2</v>
-      </c>
-      <c r="G136" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F136" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G136" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H136" s="100"/>
+      <c r="H136" s="99"/>
     </row>
     <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="100">
-        <v>13</v>
-      </c>
-      <c r="C137" s="100">
+      <c r="B137" s="89">
+        <v>3</v>
+      </c>
+      <c r="C137" s="89">
         <v>2</v>
       </c>
       <c r="D137" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E137" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F137" s="101">
-        <v>2</v>
-      </c>
-      <c r="G137" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="H137" s="100"/>
+        <v>75</v>
+      </c>
+      <c r="E137" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G137" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="99"/>
     </row>
     <row r="138" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="100">
-        <v>13</v>
-      </c>
-      <c r="C138" s="100">
+      <c r="B138" s="89">
+        <v>4</v>
+      </c>
+      <c r="C138" s="89">
         <v>2</v>
       </c>
-      <c r="D138" s="98" t="s">
-        <v>67</v>
+      <c r="D138" s="91" t="s">
+        <v>75</v>
       </c>
       <c r="E138" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F138" s="101">
-        <v>1</v>
-      </c>
-      <c r="G138" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G138" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H138" s="100"/>
+      <c r="H138" s="99"/>
     </row>
     <row r="139" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B139" s="100">
-        <v>13</v>
-      </c>
-      <c r="C139" s="100">
+      <c r="B139" s="89">
+        <v>5</v>
+      </c>
+      <c r="C139" s="89">
         <v>2</v>
       </c>
-      <c r="D139" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="E139" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="F139" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G139" s="100" t="s">
+      <c r="D139" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E139" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F139" s="94">
+        <v>1</v>
+      </c>
+      <c r="G139" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H139" s="100"/>
+      <c r="H139" s="99"/>
     </row>
     <row r="140" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B140" s="100">
-        <v>13</v>
-      </c>
-      <c r="C140" s="100">
+      <c r="B140" s="89">
+        <v>6</v>
+      </c>
+      <c r="C140" s="89">
         <v>2</v>
       </c>
-      <c r="D140" s="100"/>
-      <c r="E140" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F140" s="101">
-        <v>95</v>
-      </c>
-      <c r="G140" s="100"/>
-      <c r="H140" s="100"/>
+      <c r="D140" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F140" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G140" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="99"/>
     </row>
     <row r="141" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B141" s="100">
-        <v>14</v>
-      </c>
-      <c r="C141" s="100">
+      <c r="B141" s="89">
+        <v>7</v>
+      </c>
+      <c r="C141" s="89">
         <v>2</v>
       </c>
-      <c r="D141" s="100"/>
-      <c r="E141" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F141" s="101">
-        <v>100</v>
-      </c>
-      <c r="G141" s="100"/>
-      <c r="H141" s="100"/>
+      <c r="D141" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G141" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="99"/>
     </row>
     <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B142" s="100">
-        <v>15</v>
-      </c>
-      <c r="C142" s="100">
+      <c r="B142" s="89">
+        <v>9</v>
+      </c>
+      <c r="C142" s="89">
         <v>2</v>
       </c>
       <c r="D142" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F142" s="101">
-        <v>3</v>
-      </c>
-      <c r="G142" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E142" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F142" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G142" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H142" s="100"/>
+      <c r="H142" s="99"/>
     </row>
     <row r="143" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="89" t="s">
@@ -6264,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="100" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="H143" s="100"/>
     </row>
@@ -6273,22 +6398,22 @@
         <v>37</v>
       </c>
       <c r="B144" s="100">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C144" s="100">
         <v>2</v>
       </c>
       <c r="D144" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E144" s="92" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+      <c r="E144" s="89" t="s">
+        <v>76</v>
       </c>
       <c r="F144" s="101">
         <v>0.5</v>
       </c>
       <c r="G144" s="100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H144" s="100"/>
     </row>
@@ -6297,290 +6422,310 @@
         <v>37</v>
       </c>
       <c r="B145" s="100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C145" s="100">
         <v>2</v>
       </c>
-      <c r="D145" s="100"/>
-      <c r="E145" s="100" t="s">
-        <v>48</v>
+      <c r="D145" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E145" s="89" t="s">
+        <v>76</v>
       </c>
       <c r="F145" s="101">
-        <v>96</v>
-      </c>
-      <c r="G145" s="100"/>
-      <c r="H145" s="100"/>
+        <v>0.5</v>
+      </c>
+      <c r="G145" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="104"/>
     </row>
     <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B146" s="100">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C146" s="100">
         <v>2</v>
       </c>
-      <c r="D146" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="E146" s="103" t="s">
-        <v>82</v>
+      <c r="D146" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146" s="89" t="s">
+        <v>76</v>
       </c>
       <c r="F146" s="101">
-        <v>3</v>
-      </c>
-      <c r="G146" s="100" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="G146" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H146" s="100"/>
+      <c r="H146" s="104"/>
     </row>
     <row r="147" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="100">
-        <v>16</v>
-      </c>
-      <c r="C147" s="100">
-        <v>2</v>
-      </c>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F147" s="101">
-        <v>97</v>
-      </c>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
+      <c r="B147" s="89">
+        <v>4</v>
+      </c>
+      <c r="C147" s="90">
+        <v>1</v>
+      </c>
+      <c r="D147" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" s="93">
+        <v>5</v>
+      </c>
+      <c r="G147" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H147" s="94"/>
     </row>
     <row r="148" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="100">
-        <v>17</v>
-      </c>
-      <c r="C148" s="100">
-        <v>2</v>
+      <c r="B148" s="89">
+        <v>1</v>
+      </c>
+      <c r="C148" s="90">
+        <v>1</v>
       </c>
       <c r="D148" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E148" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F148" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G148" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="H148" s="100"/>
+        <v>53</v>
+      </c>
+      <c r="E148" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148" s="93">
+        <v>4</v>
+      </c>
+      <c r="G148" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H148" s="94"/>
     </row>
     <row r="149" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B149" s="100">
+      <c r="B149" s="89">
         <v>17</v>
       </c>
-      <c r="C149" s="100">
+      <c r="C149" s="90">
+        <v>1</v>
+      </c>
+      <c r="D149" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149" s="93">
         <v>2</v>
       </c>
-      <c r="D149" s="100"/>
-      <c r="E149" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F149" s="101">
-        <v>99.5</v>
-      </c>
-      <c r="G149" s="104"/>
-      <c r="H149" s="104"/>
+      <c r="G149" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H149" s="94"/>
     </row>
     <row r="150" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="100">
-        <v>18</v>
-      </c>
-      <c r="C150" s="100">
+      <c r="B150" s="89">
+        <v>19</v>
+      </c>
+      <c r="C150" s="90">
+        <v>1</v>
+      </c>
+      <c r="D150" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" s="93">
         <v>2</v>
       </c>
-      <c r="D150" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E150" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F150" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G150" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="H150" s="104"/>
+      <c r="G150" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H150" s="94"/>
     </row>
     <row r="151" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B151" s="100">
-        <v>18</v>
-      </c>
-      <c r="C151" s="100">
-        <v>2</v>
-      </c>
-      <c r="D151" s="100"/>
-      <c r="E151" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F151" s="101">
-        <v>99.5</v>
-      </c>
-      <c r="G151" s="104"/>
-      <c r="H151" s="104"/>
+      <c r="B151" s="89">
+        <v>10</v>
+      </c>
+      <c r="C151" s="90">
+        <v>1</v>
+      </c>
+      <c r="D151" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F151" s="93">
+        <v>1</v>
+      </c>
+      <c r="G151" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H151" s="94"/>
     </row>
     <row r="152" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B152" s="100">
-        <v>19</v>
-      </c>
-      <c r="C152" s="100">
-        <v>2</v>
-      </c>
-      <c r="D152" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="E152" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="F152" s="101">
-        <v>5</v>
-      </c>
-      <c r="G152" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="104"/>
+      <c r="B152" s="89">
+        <v>31</v>
+      </c>
+      <c r="C152" s="90">
+        <v>1</v>
+      </c>
+      <c r="D152" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="93">
+        <v>3</v>
+      </c>
+      <c r="G152" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H152" s="94"/>
     </row>
     <row r="153" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B153" s="100">
-        <v>19</v>
-      </c>
-      <c r="C153" s="100">
-        <v>2</v>
+      <c r="B153" s="89">
+        <v>14</v>
+      </c>
+      <c r="C153" s="89">
+        <v>1</v>
       </c>
       <c r="D153" s="91" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E153" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F153" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G153" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="104"/>
+        <v>54</v>
+      </c>
+      <c r="F153" s="94">
+        <v>4</v>
+      </c>
+      <c r="G153" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" s="99"/>
     </row>
     <row r="154" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="100">
-        <v>19</v>
-      </c>
-      <c r="C154" s="100">
+      <c r="B154" s="89">
+        <v>10</v>
+      </c>
+      <c r="C154" s="89">
         <v>2</v>
       </c>
-      <c r="D154" s="100"/>
-      <c r="E154" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F154" s="101">
-        <v>95</v>
-      </c>
-      <c r="G154" s="104"/>
-      <c r="H154" s="104"/>
+      <c r="D154" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G154" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" s="99"/>
     </row>
     <row r="155" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B155" s="100">
-        <v>20</v>
-      </c>
-      <c r="C155" s="100">
+      <c r="B155" s="89">
+        <v>11</v>
+      </c>
+      <c r="C155" s="89">
         <v>2</v>
       </c>
       <c r="D155" s="91" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E155" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F155" s="101">
-        <v>2</v>
-      </c>
-      <c r="G155" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="104"/>
+        <v>54</v>
+      </c>
+      <c r="F155" s="94">
+        <v>1</v>
+      </c>
+      <c r="G155" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="H155" s="99"/>
     </row>
     <row r="156" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B156" s="100">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C156" s="100">
         <v>2</v>
       </c>
       <c r="D156" s="91" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E156" s="92" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F156" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G156" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" s="104"/>
+        <v>2</v>
+      </c>
+      <c r="G156" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="H156" s="100"/>
     </row>
     <row r="157" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B157" s="100">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C157" s="100">
-        <v>2</v>
-      </c>
-      <c r="D157" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="E157" s="103" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="D157" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" s="92" t="s">
+        <v>54</v>
       </c>
       <c r="F157" s="101">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G157" s="104" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="H157" s="104"/>
     </row>
@@ -6592,19 +6737,19 @@
         <v>20</v>
       </c>
       <c r="C158" s="100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E158" s="89" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="E158" s="92" t="s">
+        <v>54</v>
       </c>
       <c r="F158" s="101">
         <v>0.5</v>
       </c>
       <c r="G158" s="104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H158" s="104"/>
     </row>
@@ -6612,791 +6757,747 @@
       <c r="A159" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B159" s="100">
-        <v>20</v>
-      </c>
-      <c r="C159" s="100">
-        <v>2</v>
-      </c>
-      <c r="D159" s="100"/>
-      <c r="E159" s="100" t="s">
+      <c r="B159" s="89">
+        <v>27</v>
+      </c>
+      <c r="C159" s="90">
+        <v>1</v>
+      </c>
+      <c r="D159" s="97"/>
+      <c r="E159" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F159" s="101">
-        <v>96</v>
-      </c>
-      <c r="G159" s="104"/>
-      <c r="H159" s="104"/>
+      <c r="F159" s="93">
+        <v>32</v>
+      </c>
+      <c r="G159" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H159" s="94"/>
     </row>
     <row r="160" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B160" s="100">
-        <v>25</v>
-      </c>
-      <c r="C160" s="100">
+      <c r="B160" s="89">
+        <v>15</v>
+      </c>
+      <c r="C160" s="90">
         <v>1</v>
       </c>
-      <c r="D160" s="91" t="s">
-        <v>49</v>
-      </c>
+      <c r="D160" s="97"/>
       <c r="E160" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F160" s="101">
-        <v>40</v>
-      </c>
-      <c r="G160" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H160" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F160" s="93">
+        <v>14</v>
+      </c>
+      <c r="G160" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H160" s="94"/>
     </row>
     <row r="161" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B161" s="100">
-        <v>25</v>
-      </c>
-      <c r="C161" s="100">
+      <c r="B161" s="89">
+        <v>4</v>
+      </c>
+      <c r="C161" s="90">
         <v>1</v>
       </c>
-      <c r="D161" s="102" t="s">
+      <c r="D161" s="89"/>
+      <c r="E161" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F161" s="93">
         <v>40</v>
       </c>
-      <c r="E161" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="F161" s="101">
-        <v>50</v>
-      </c>
-      <c r="G161" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="104"/>
+      <c r="G161" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H161" s="94"/>
     </row>
     <row r="162" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="100">
-        <v>25</v>
-      </c>
-      <c r="C162" s="100">
+      <c r="B162" s="89">
+        <v>16</v>
+      </c>
+      <c r="C162" s="90">
         <v>1</v>
       </c>
-      <c r="D162" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="E162" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="F162" s="101">
-        <v>2</v>
-      </c>
-      <c r="G162" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="104"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F162" s="93">
+        <v>30</v>
+      </c>
+      <c r="G162" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H162" s="94"/>
     </row>
     <row r="163" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B163" s="100">
-        <v>25</v>
-      </c>
-      <c r="C163" s="100">
+      <c r="B163" s="89">
+        <v>16</v>
+      </c>
+      <c r="C163" s="90">
         <v>1</v>
       </c>
-      <c r="D163" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E163" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="F163" s="101">
-        <v>5</v>
-      </c>
-      <c r="G163" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" s="104"/>
+      <c r="D163" s="91"/>
+      <c r="E163" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F163" s="93">
+        <v>20</v>
+      </c>
+      <c r="G163" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H163" s="94"/>
     </row>
     <row r="164" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B164" s="100">
-        <v>25</v>
-      </c>
-      <c r="C164" s="100">
+      <c r="B164" s="89">
         <v>1</v>
       </c>
-      <c r="D164" s="100"/>
-      <c r="E164" s="100" t="s">
+      <c r="C164" s="90">
+        <v>1</v>
+      </c>
+      <c r="D164" s="89"/>
+      <c r="E164" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F164" s="101">
-        <v>5</v>
-      </c>
-      <c r="G164" s="104"/>
-      <c r="H164" s="104"/>
+      <c r="F164" s="93">
+        <v>44</v>
+      </c>
+      <c r="G164" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H164" s="94"/>
     </row>
     <row r="165" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B165" s="100">
-        <v>30</v>
-      </c>
-      <c r="C165" s="100">
+      <c r="B165" s="89">
+        <v>17</v>
+      </c>
+      <c r="C165" s="90">
         <v>1</v>
       </c>
-      <c r="D165" s="91" t="s">
-        <v>38</v>
-      </c>
+      <c r="D165" s="89"/>
       <c r="E165" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F165" s="101">
-        <v>80</v>
-      </c>
-      <c r="G165" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F165" s="93">
+        <v>26</v>
+      </c>
+      <c r="G165" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H165" s="94"/>
     </row>
     <row r="166" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B166" s="100">
-        <v>30</v>
-      </c>
-      <c r="C166" s="100">
+      <c r="B166" s="89">
+        <v>12</v>
+      </c>
+      <c r="C166" s="90">
         <v>1</v>
       </c>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100" t="s">
+      <c r="D166" s="89"/>
+      <c r="E166" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F166" s="101">
-        <v>20</v>
-      </c>
-      <c r="G166" s="104"/>
-      <c r="H166" s="104"/>
+      <c r="F166" s="93">
+        <v>33</v>
+      </c>
+      <c r="G166" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H166" s="94"/>
     </row>
     <row r="167" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B167" s="100">
-        <v>21</v>
-      </c>
-      <c r="C167" s="100">
+      <c r="B167" s="89">
+        <v>19</v>
+      </c>
+      <c r="C167" s="90">
         <v>1</v>
       </c>
-      <c r="D167" s="91" t="s">
-        <v>38</v>
-      </c>
+      <c r="D167" s="89"/>
       <c r="E167" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F167" s="101">
-        <v>30</v>
-      </c>
-      <c r="G167" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H167" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F167" s="93">
+        <v>28</v>
+      </c>
+      <c r="G167" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H167" s="94"/>
     </row>
     <row r="168" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B168" s="100">
-        <v>21</v>
-      </c>
-      <c r="C168" s="100">
+      <c r="B168" s="89">
+        <v>18</v>
+      </c>
+      <c r="C168" s="90">
         <v>1</v>
       </c>
-      <c r="D168" s="91" t="s">
-        <v>49</v>
-      </c>
+      <c r="D168" s="89"/>
       <c r="E168" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F168" s="101">
-        <v>20</v>
-      </c>
-      <c r="G168" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H168" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F168" s="93">
+        <v>59</v>
+      </c>
+      <c r="G168" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H168" s="94"/>
     </row>
     <row r="169" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B169" s="100">
-        <v>21</v>
-      </c>
-      <c r="C169" s="100">
+      <c r="B169" s="89">
+        <v>10</v>
+      </c>
+      <c r="C169" s="90">
         <v>1</v>
       </c>
-      <c r="D169" s="91" t="s">
-        <v>58</v>
-      </c>
+      <c r="D169" s="89"/>
       <c r="E169" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F169" s="101">
-        <v>10</v>
-      </c>
-      <c r="G169" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H169" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F169" s="93">
+        <v>42</v>
+      </c>
+      <c r="G169" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H169" s="94"/>
     </row>
     <row r="170" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B170" s="100">
-        <v>21</v>
-      </c>
-      <c r="C170" s="100">
+      <c r="B170" s="89">
+        <v>31</v>
+      </c>
+      <c r="C170" s="90">
         <v>1</v>
       </c>
-      <c r="D170" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F170" s="101">
-        <v>3</v>
-      </c>
-      <c r="G170" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="104"/>
+      <c r="D170" s="89"/>
+      <c r="E170" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F170" s="93">
+        <v>50</v>
+      </c>
+      <c r="G170" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H170" s="94"/>
     </row>
     <row r="171" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B171" s="100">
-        <v>21</v>
-      </c>
-      <c r="C171" s="100">
+      <c r="B171" s="89">
+        <v>8</v>
+      </c>
+      <c r="C171" s="90">
         <v>1</v>
       </c>
-      <c r="D171" s="100"/>
-      <c r="E171" s="100" t="s">
+      <c r="D171" s="89"/>
+      <c r="E171" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F171" s="101">
+      <c r="F171" s="93">
         <v>37</v>
       </c>
-      <c r="G171" s="104"/>
-      <c r="H171" s="104"/>
+      <c r="G171" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H171" s="94"/>
     </row>
     <row r="172" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B172" s="100">
-        <v>26</v>
-      </c>
-      <c r="C172" s="100">
+      <c r="B172" s="89">
+        <v>29</v>
+      </c>
+      <c r="C172" s="90">
         <v>1</v>
       </c>
-      <c r="D172" s="91" t="s">
-        <v>49</v>
-      </c>
+      <c r="D172" s="91"/>
       <c r="E172" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F172" s="101">
-        <v>65</v>
-      </c>
-      <c r="G172" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F172" s="93">
+        <v>43</v>
+      </c>
+      <c r="G172" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="H172" s="94"/>
     </row>
     <row r="173" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B173" s="100">
-        <v>26</v>
-      </c>
-      <c r="C173" s="100">
+      <c r="B173" s="89">
+        <v>13</v>
+      </c>
+      <c r="C173" s="89">
         <v>1</v>
       </c>
-      <c r="D173" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E173" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F173" s="101">
-        <v>6</v>
-      </c>
-      <c r="G173" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173" s="104"/>
+      <c r="D173" s="89"/>
+      <c r="E173" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F173" s="94">
+        <v>40</v>
+      </c>
+      <c r="G173" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H173" s="99"/>
     </row>
     <row r="174" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B174" s="100">
-        <v>26</v>
-      </c>
-      <c r="C174" s="100">
+      <c r="B174" s="89">
+        <v>14</v>
+      </c>
+      <c r="C174" s="89">
         <v>1</v>
       </c>
-      <c r="D174" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E174" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F174" s="101">
-        <v>8</v>
-      </c>
-      <c r="G174" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="H174" s="104"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F174" s="94">
+        <v>36</v>
+      </c>
+      <c r="G174" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H174" s="99"/>
     </row>
     <row r="175" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B175" s="100">
-        <v>26</v>
-      </c>
-      <c r="C175" s="100">
+      <c r="B175" s="89">
+        <v>5</v>
+      </c>
+      <c r="C175" s="89">
         <v>1</v>
       </c>
-      <c r="D175" s="91" t="s">
-        <v>69</v>
-      </c>
+      <c r="D175" s="89"/>
       <c r="E175" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="F175" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G175" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F175" s="94">
+        <v>18</v>
+      </c>
+      <c r="G175" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H175" s="99"/>
     </row>
     <row r="176" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B176" s="100">
-        <v>26</v>
-      </c>
-      <c r="C176" s="100">
+      <c r="B176" s="89">
         <v>1</v>
       </c>
-      <c r="D176" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E176" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F176" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G176" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H176" s="104"/>
+      <c r="C176" s="89">
+        <v>2</v>
+      </c>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F176" s="94">
+        <v>98</v>
+      </c>
+      <c r="G176" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H176" s="99"/>
     </row>
     <row r="177" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B177" s="100">
-        <v>26</v>
-      </c>
-      <c r="C177" s="100">
-        <v>1</v>
-      </c>
-      <c r="D177" s="91" t="s">
-        <v>71</v>
-      </c>
+      <c r="B177" s="89">
+        <v>2</v>
+      </c>
+      <c r="C177" s="89">
+        <v>2</v>
+      </c>
+      <c r="D177" s="89"/>
       <c r="E177" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="F177" s="101">
-        <v>2</v>
-      </c>
-      <c r="G177" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H177" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F177" s="94">
+        <v>80</v>
+      </c>
+      <c r="G177" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H177" s="99"/>
     </row>
     <row r="178" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B178" s="100">
-        <v>26</v>
-      </c>
-      <c r="C178" s="100">
-        <v>1</v>
-      </c>
-      <c r="D178" s="100"/>
-      <c r="E178" s="100" t="s">
+      <c r="B178" s="89">
+        <v>3</v>
+      </c>
+      <c r="C178" s="89">
+        <v>2</v>
+      </c>
+      <c r="D178" s="89"/>
+      <c r="E178" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="F178" s="101">
-        <v>18</v>
-      </c>
-      <c r="G178" s="104"/>
-      <c r="H178" s="104"/>
+      <c r="F178" s="94">
+        <v>83</v>
+      </c>
+      <c r="G178" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H178" s="99"/>
     </row>
     <row r="179" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B179" s="100">
-        <v>7</v>
-      </c>
-      <c r="C179" s="100">
-        <v>1</v>
-      </c>
-      <c r="D179" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E179" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F179" s="101">
-        <v>60</v>
-      </c>
-      <c r="G179" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H179" s="104"/>
+      <c r="B179" s="89">
+        <v>4</v>
+      </c>
+      <c r="C179" s="89">
+        <v>2</v>
+      </c>
+      <c r="D179" s="89"/>
+      <c r="E179" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F179" s="94">
+        <v>98</v>
+      </c>
+      <c r="G179" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H179" s="99"/>
     </row>
     <row r="180" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B180" s="100">
-        <v>7</v>
-      </c>
-      <c r="C180" s="100">
-        <v>1</v>
-      </c>
-      <c r="D180" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E180" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F180" s="101">
-        <v>9</v>
-      </c>
-      <c r="G180" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H180" s="104"/>
+      <c r="B180" s="89">
+        <v>5</v>
+      </c>
+      <c r="C180" s="89">
+        <v>2</v>
+      </c>
+      <c r="D180" s="89"/>
+      <c r="E180" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F180" s="94">
+        <v>98</v>
+      </c>
+      <c r="G180" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H180" s="99"/>
     </row>
     <row r="181" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B181" s="100">
-        <v>7</v>
-      </c>
-      <c r="C181" s="100">
-        <v>1</v>
-      </c>
-      <c r="D181" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E181" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F181" s="101">
-        <v>5</v>
-      </c>
-      <c r="G181" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H181" s="104"/>
+      <c r="B181" s="89">
+        <v>6</v>
+      </c>
+      <c r="C181" s="89">
+        <v>2</v>
+      </c>
+      <c r="D181" s="89"/>
+      <c r="E181" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F181" s="94">
+        <v>96</v>
+      </c>
+      <c r="G181" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H181" s="99"/>
     </row>
     <row r="182" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B182" s="100">
+      <c r="B182" s="89">
         <v>7</v>
       </c>
-      <c r="C182" s="100">
-        <v>1</v>
-      </c>
-      <c r="D182" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E182" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F182" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="G182" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="104"/>
+      <c r="C182" s="89">
+        <v>2</v>
+      </c>
+      <c r="D182" s="89"/>
+      <c r="E182" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F182" s="94">
+        <v>94</v>
+      </c>
+      <c r="G182" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H182" s="99"/>
     </row>
     <row r="183" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B183" s="100">
-        <v>7</v>
-      </c>
-      <c r="C183" s="100">
-        <v>1</v>
-      </c>
-      <c r="D183" s="98" t="s">
-        <v>67</v>
-      </c>
+      <c r="B183" s="89">
+        <v>8</v>
+      </c>
+      <c r="C183" s="89">
+        <v>2</v>
+      </c>
+      <c r="D183" s="89"/>
       <c r="E183" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F183" s="101">
-        <v>1</v>
-      </c>
-      <c r="G183" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H183" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="F183" s="94">
+        <v>99.5</v>
+      </c>
+      <c r="G183" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H183" s="99"/>
     </row>
     <row r="184" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B184" s="100">
-        <v>7</v>
-      </c>
-      <c r="C184" s="100">
-        <v>1</v>
-      </c>
-      <c r="D184" s="100"/>
-      <c r="E184" s="100" t="s">
+      <c r="B184" s="89">
+        <v>9</v>
+      </c>
+      <c r="C184" s="89">
+        <v>2</v>
+      </c>
+      <c r="D184" s="89"/>
+      <c r="E184" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="F184" s="101">
-        <v>25</v>
-      </c>
-      <c r="G184" s="104"/>
-      <c r="H184" s="104"/>
+      <c r="F184" s="94">
+        <v>99</v>
+      </c>
+      <c r="G184" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H184" s="99"/>
     </row>
     <row r="185" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B185" s="100">
-        <v>22</v>
-      </c>
-      <c r="C185" s="100">
-        <v>1</v>
-      </c>
-      <c r="D185" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E185" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" s="101">
-        <v>65</v>
-      </c>
-      <c r="G185" s="104" t="s">
+      <c r="B185" s="89">
         <v>10</v>
       </c>
-      <c r="H185" s="104"/>
+      <c r="C185" s="89">
+        <v>2</v>
+      </c>
+      <c r="D185" s="89"/>
+      <c r="E185" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F185" s="94">
+        <v>88</v>
+      </c>
+      <c r="G185" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H185" s="99"/>
     </row>
     <row r="186" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B186" s="100">
-        <v>22</v>
-      </c>
-      <c r="C186" s="100">
-        <v>1</v>
-      </c>
-      <c r="D186" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E186" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="F186" s="101">
-        <v>40</v>
-      </c>
-      <c r="G186" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H186" s="104"/>
+      <c r="B186" s="89">
+        <v>11</v>
+      </c>
+      <c r="C186" s="89">
+        <v>2</v>
+      </c>
+      <c r="D186" s="89"/>
+      <c r="E186" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F186" s="94">
+        <v>77</v>
+      </c>
+      <c r="G186" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="H186" s="99"/>
     </row>
     <row r="187" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B187" s="100">
-        <v>22</v>
-      </c>
-      <c r="C187" s="100">
-        <v>1</v>
-      </c>
-      <c r="D187" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E187" s="89" t="s">
-        <v>68</v>
+      <c r="B187" s="89">
+        <v>12</v>
+      </c>
+      <c r="C187" s="89">
+        <v>2</v>
+      </c>
+      <c r="D187" s="100"/>
+      <c r="E187" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F187" s="101">
-        <v>1</v>
-      </c>
-      <c r="G187" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H187" s="104"/>
+        <v>43</v>
+      </c>
+      <c r="G187" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H187" s="100"/>
     </row>
     <row r="188" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B188" s="100">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C188" s="100">
-        <v>1</v>
-      </c>
-      <c r="D188" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E188" s="92" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D188" s="100"/>
+      <c r="E188" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F188" s="101">
-        <v>1</v>
-      </c>
-      <c r="G188" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H188" s="104"/>
+        <v>95</v>
+      </c>
+      <c r="G188" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H188" s="100"/>
     </row>
     <row r="189" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B189" s="100">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C189" s="100">
-        <v>1</v>
-      </c>
-      <c r="D189" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E189" s="92" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D189" s="100"/>
+      <c r="E189" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F189" s="101">
-        <v>20</v>
-      </c>
-      <c r="G189" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H189" s="104"/>
+        <v>100</v>
+      </c>
+      <c r="G189" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H189" s="100"/>
     </row>
     <row r="190" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B190" s="100">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C190" s="100">
-        <v>1</v>
-      </c>
-      <c r="D190" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="E190" s="92" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="D190" s="100"/>
+      <c r="E190" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F190" s="101">
-        <v>15</v>
-      </c>
-      <c r="G190" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H190" s="104"/>
+        <v>96</v>
+      </c>
+      <c r="G190" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H190" s="100"/>
     </row>
     <row r="191" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B191" s="100">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C191" s="100">
-        <v>1</v>
-      </c>
-      <c r="D191" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E191" s="92" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="D191" s="100"/>
+      <c r="E191" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F191" s="101">
-        <v>12</v>
-      </c>
-      <c r="G191" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="H191" s="104"/>
+        <v>97</v>
+      </c>
+      <c r="G191" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="H191" s="100"/>
     </row>
     <row r="192" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B192" s="100">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C192" s="100">
-        <v>1</v>
-      </c>
-      <c r="D192" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E192" s="92" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="D192" s="100"/>
+      <c r="E192" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F192" s="101">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="G192" s="104" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H192" s="104"/>
     </row>
@@ -7405,19 +7506,21 @@
         <v>37</v>
       </c>
       <c r="B193" s="100">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C193" s="100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" s="100"/>
       <c r="E193" s="100" t="s">
         <v>48</v>
       </c>
       <c r="F193" s="101">
-        <v>53</v>
-      </c>
-      <c r="G193" s="104"/>
+        <v>99.5</v>
+      </c>
+      <c r="G193" s="104" t="s">
+        <v>91</v>
+      </c>
       <c r="H193" s="104"/>
     </row>
     <row r="194" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7425,22 +7528,20 @@
         <v>37</v>
       </c>
       <c r="B194" s="100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C194" s="100">
-        <v>1</v>
-      </c>
-      <c r="D194" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194" s="92" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D194" s="100"/>
+      <c r="E194" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F194" s="101">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G194" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H194" s="104"/>
     </row>
@@ -7452,19 +7553,17 @@
         <v>20</v>
       </c>
       <c r="C195" s="100">
-        <v>1</v>
-      </c>
-      <c r="D195" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E195" s="92" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="D195" s="100"/>
+      <c r="E195" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F195" s="101">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="G195" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H195" s="104"/>
     </row>
@@ -7473,22 +7572,20 @@
         <v>37</v>
       </c>
       <c r="B196" s="100">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C196" s="100">
         <v>1</v>
       </c>
-      <c r="D196" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E196" s="92" t="s">
-        <v>59</v>
+      <c r="D196" s="100"/>
+      <c r="E196" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F196" s="101">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G196" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H196" s="104"/>
     </row>
@@ -7497,22 +7594,20 @@
         <v>37</v>
       </c>
       <c r="B197" s="100">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C197" s="100">
         <v>1</v>
       </c>
-      <c r="D197" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E197" s="92" t="s">
-        <v>54</v>
+      <c r="D197" s="100"/>
+      <c r="E197" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F197" s="101">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G197" s="104" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H197" s="104"/>
     </row>
@@ -7521,7 +7616,7 @@
         <v>37</v>
       </c>
       <c r="B198" s="100">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C198" s="100">
         <v>1</v>
@@ -7531,9 +7626,11 @@
         <v>48</v>
       </c>
       <c r="F198" s="101">
-        <v>30</v>
-      </c>
-      <c r="G198" s="104"/>
+        <v>37</v>
+      </c>
+      <c r="G198" s="104" t="s">
+        <v>91</v>
+      </c>
       <c r="H198" s="104"/>
     </row>
     <row r="199" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7541,22 +7638,20 @@
         <v>37</v>
       </c>
       <c r="B199" s="100">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C199" s="100">
         <v>1</v>
       </c>
-      <c r="D199" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E199" s="92" t="s">
-        <v>39</v>
+      <c r="D199" s="100"/>
+      <c r="E199" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F199" s="101">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G199" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H199" s="104"/>
     </row>
@@ -7565,22 +7660,20 @@
         <v>37</v>
       </c>
       <c r="B200" s="100">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C200" s="100">
         <v>1</v>
       </c>
-      <c r="D200" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E200" s="92" t="s">
-        <v>59</v>
+      <c r="D200" s="100"/>
+      <c r="E200" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F200" s="101">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G200" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H200" s="104"/>
     </row>
@@ -7589,22 +7682,20 @@
         <v>37</v>
       </c>
       <c r="B201" s="100">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C201" s="100">
         <v>1</v>
       </c>
-      <c r="D201" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="E201" s="92" t="s">
-        <v>50</v>
+      <c r="D201" s="100"/>
+      <c r="E201" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F201" s="101">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G201" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H201" s="104"/>
     </row>
@@ -7613,7 +7704,7 @@
         <v>37</v>
       </c>
       <c r="B202" s="100">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C202" s="100">
         <v>1</v>
@@ -7623,9 +7714,11 @@
         <v>48</v>
       </c>
       <c r="F202" s="101">
-        <v>53</v>
-      </c>
-      <c r="G202" s="104"/>
+        <v>30</v>
+      </c>
+      <c r="G202" s="104" t="s">
+        <v>91</v>
+      </c>
       <c r="H202" s="104"/>
     </row>
     <row r="203" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7633,22 +7726,20 @@
         <v>37</v>
       </c>
       <c r="B203" s="100">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C203" s="100">
         <v>1</v>
       </c>
-      <c r="D203" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="E203" s="92" t="s">
-        <v>39</v>
+      <c r="D203" s="100"/>
+      <c r="E203" s="100" t="s">
+        <v>48</v>
       </c>
       <c r="F203" s="101">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G203" s="104" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="H203" s="104"/>
     </row>
@@ -7669,10 +7760,15 @@
       <c r="F204" s="101">
         <v>45</v>
       </c>
-      <c r="G204" s="104"/>
+      <c r="G204" s="104" t="s">
+        <v>91</v>
+      </c>
       <c r="H204" s="104"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IO204">
+    <sortCondition ref="G2:G204"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
